--- a/functions/menus/barfood.xlsx
+++ b/functions/menus/barfood.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aknar\Documents\GitHub\mall-restaurant\functions\menus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\URBANFOODCOURT1\Users\FC1\OneDrive\Documents\mall-restaurant\functions\menus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7193AB7-CE9F-4B20-A0BC-DAC84283C840}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDA2E2-DAA7-444D-81F8-FAD9D35D79DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="13" xr2:uid="{913ECFC5-BE82-444D-A9C6-21D36117BB0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{913ECFC5-BE82-444D-A9C6-21D36117BB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="DRINKS" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>WATER BOTTLE</t>
   </si>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>NON VEG. GRAVY  HALF</t>
+  </si>
+  <si>
+    <t>JAIRY MAIRY CHICKEN</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558AF246-61CB-44C9-86BB-43FB08F458C0}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,6 +1461,14 @@
       </c>
       <c r="B15" s="3">
         <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="3">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1559,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8451EBEA-7F80-4484-8CDD-6E18352554FF}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1581,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B1" s="3">
         <v>400</v>
@@ -1579,16 +1590,16 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="B2" s="3">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B3" s="3">
         <v>400</v>
@@ -1597,16 +1608,16 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B5" s="3">
         <v>400</v>
@@ -1615,16 +1626,16 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B6" s="3">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B7" s="3">
         <v>400</v>
@@ -1633,16 +1644,16 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B8" s="3">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B9" s="3">
         <v>400</v>
@@ -1651,16 +1662,16 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B10" s="3">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B11" s="3">
         <v>400</v>
@@ -1669,16 +1680,16 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B12" s="3">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B13" s="3">
         <v>400</v>
@@ -1687,61 +1698,61 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B14" s="3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B16" s="3">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B17" s="3">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B18" s="3">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B19" s="3">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B20" s="3">
         <v>250</v>
@@ -1750,25 +1761,25 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B21" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B22" s="3">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B23" s="3">
         <v>250</v>
@@ -1777,25 +1788,25 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B24" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B25" s="3">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B26" s="3">
         <v>250</v>
@@ -1804,59 +1815,62 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B27" s="3">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B28" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B29" s="3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B30" s="3">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B31" s="3">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B32" s="3">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C32" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B32">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/functions/menus/barfood.xlsx
+++ b/functions/menus/barfood.xlsx
@@ -5,28 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\URBANFOODCOURT1\Users\FC1\OneDrive\Documents\mall-restaurant\functions\menus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ef994ddc3fa0009/Documents/mall-restaurant/functions/menus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDA2E2-DAA7-444D-81F8-FAD9D35D79DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{89EDA2E2-DAA7-444D-81F8-FAD9D35D79DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F3FDFE86-D717-46D7-B119-589322880B4C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{913ECFC5-BE82-444D-A9C6-21D36117BB0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="14" xr2:uid="{913ECFC5-BE82-444D-A9C6-21D36117BB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="DRINKS" sheetId="1" r:id="rId1"/>
     <sheet name="JUICES" sheetId="2" r:id="rId2"/>
-    <sheet name="VEG. SOUP" sheetId="3" r:id="rId3"/>
-    <sheet name="NON. VEG. SOUP" sheetId="4" r:id="rId4"/>
+    <sheet name="VEG SOUP" sheetId="3" r:id="rId3"/>
+    <sheet name="NON VEG SOUP" sheetId="4" r:id="rId4"/>
     <sheet name="LASSI" sheetId="5" r:id="rId5"/>
-    <sheet name="SNACKS NON VEG." sheetId="6" r:id="rId6"/>
-    <sheet name="SNACKS VEG." sheetId="7" r:id="rId7"/>
-    <sheet name="TANDOORI VEG." sheetId="8" r:id="rId8"/>
-    <sheet name="INDIAN CURRIES VEG." sheetId="11" r:id="rId9"/>
+    <sheet name="SNACKS NON VEG" sheetId="6" r:id="rId6"/>
+    <sheet name="SNACKS VEG" sheetId="7" r:id="rId7"/>
+    <sheet name="TANDOORI VEG" sheetId="8" r:id="rId8"/>
+    <sheet name="INDIAN CURRIES VEG" sheetId="11" r:id="rId9"/>
     <sheet name="SALAD" sheetId="12" r:id="rId10"/>
     <sheet name="RAITA" sheetId="13" r:id="rId11"/>
-    <sheet name="TANDOOR NON VEG." sheetId="14" r:id="rId12"/>
+    <sheet name="TANDOOR NON VEG" sheetId="14" r:id="rId12"/>
     <sheet name="RICE &amp; BIRYANI" sheetId="9" r:id="rId13"/>
-    <sheet name="INDIAN CURRIES NON VEG." sheetId="10" r:id="rId14"/>
+    <sheet name="INDIAN CURRIES NON VEG" sheetId="10" r:id="rId14"/>
     <sheet name="BREAD" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>WATER BOTTLE</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>JAIRY MAIRY CHICKEN</t>
+  </si>
+  <si>
+    <t>EGG Pakoda</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558AF246-61CB-44C9-86BB-43FB08F458C0}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1879,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23629338-B275-4F69-8019-C2697E75E994}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,7 +2127,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4937C7-CB77-4735-816A-DCC210C4E7E8}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,6 +2807,14 @@
       </c>
       <c r="B44" s="3">
         <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="3">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/functions/menus/barfood.xlsx
+++ b/functions/menus/barfood.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ef994ddc3fa0009/Documents/mall-restaurant/functions/menus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\URBANFOODCOURT1\Users\FC1\OneDrive\Documents\mall-restaurant\functions\menus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{89EDA2E2-DAA7-444D-81F8-FAD9D35D79DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F3FDFE86-D717-46D7-B119-589322880B4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596D47F-F2B1-4497-A655-7B70DD9920CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="14" xr2:uid="{913ECFC5-BE82-444D-A9C6-21D36117BB0C}"/>
   </bookViews>
@@ -27,7 +27,8 @@
     <sheet name="TANDOOR NON VEG" sheetId="14" r:id="rId12"/>
     <sheet name="RICE &amp; BIRYANI" sheetId="9" r:id="rId13"/>
     <sheet name="INDIAN CURRIES NON VEG" sheetId="10" r:id="rId14"/>
-    <sheet name="BREAD" sheetId="15" r:id="rId15"/>
+    <sheet name="NOODLES" sheetId="16" r:id="rId15"/>
+    <sheet name="BREAD" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
   <si>
     <t>WATER BOTTLE</t>
   </si>
@@ -714,6 +715,39 @@
   </si>
   <si>
     <t>EGG Pakoda</t>
+  </si>
+  <si>
+    <t>EGG CURRY</t>
+  </si>
+  <si>
+    <t>VEG NOODLES</t>
+  </si>
+  <si>
+    <t>VEG HAKKA NOODLES</t>
+  </si>
+  <si>
+    <t>VEG SECHZWAN NOODLES</t>
+  </si>
+  <si>
+    <t>VEG FRIED RICE</t>
+  </si>
+  <si>
+    <t>VEG SECHZWAN RICE</t>
+  </si>
+  <si>
+    <t>VEG CHOUPSEY</t>
+  </si>
+  <si>
+    <t>CHICKEN FRIED RICE</t>
+  </si>
+  <si>
+    <t>CHICKEN SECHZWAN RICE</t>
+  </si>
+  <si>
+    <t>CHICKEN HAKKA NOODLES</t>
+  </si>
+  <si>
+    <t>CHICKEN SECHZWAN NOODLES</t>
   </si>
 </sst>
 </file>
@@ -1571,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8451EBEA-7F80-4484-8CDD-6E18352554FF}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,6 +1904,14 @@
       </c>
       <c r="C32" s="3"/>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="3">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B32">
     <sortCondition ref="A1"/>
@@ -1879,10 +1921,105 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93CBF4E-8791-4889-85A9-9D818638083A}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23629338-B275-4F69-8019-C2697E75E994}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/functions/menus/barfood.xlsx
+++ b/functions/menus/barfood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\URBANFOODCOURT1\Users\FC1\OneDrive\Documents\mall-restaurant\functions\menus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ef994ddc3fa0009/Documents/mall-restaurant/functions/menus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8596D47F-F2B1-4497-A655-7B70DD9920CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{ED710AC4-C8F4-439E-A870-CB40B4F20D89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D19BF345-89D2-4090-A586-3703B5BDC742}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="14" xr2:uid="{913ECFC5-BE82-444D-A9C6-21D36117BB0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="11" xr2:uid="{913ECFC5-BE82-444D-A9C6-21D36117BB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="DRINKS" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="INDIAN CURRIES NON VEG" sheetId="10" r:id="rId14"/>
     <sheet name="NOODLES" sheetId="16" r:id="rId15"/>
     <sheet name="BREAD" sheetId="15" r:id="rId16"/>
+    <sheet name="BURGERS" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>WATER BOTTLE</t>
   </si>
@@ -582,21 +583,6 @@
     <t>CHICKEN MUNCHURIAN DRY  HALF</t>
   </si>
   <si>
-    <t>GARLIC FISH   HALF</t>
-  </si>
-  <si>
-    <t>LEMON FISH  HALF</t>
-  </si>
-  <si>
-    <t>FISH FINGER  HALF</t>
-  </si>
-  <si>
-    <t>FISH FRY         HALF</t>
-  </si>
-  <si>
-    <t>CHILLY FISH  HALF</t>
-  </si>
-  <si>
     <t>CHILLY CHICKEN DRY  FULL</t>
   </si>
   <si>
@@ -748,6 +734,51 @@
   </si>
   <si>
     <t>CHICKEN SECHZWAN NOODLES</t>
+  </si>
+  <si>
+    <t>VEGGIE BURGUR</t>
+  </si>
+  <si>
+    <t>PANEER SUPREME</t>
+  </si>
+  <si>
+    <t>CREAMY BURGUR</t>
+  </si>
+  <si>
+    <t>CHICKEN BURGUR</t>
+  </si>
+  <si>
+    <t>bu</t>
+  </si>
+  <si>
+    <t>JUICES BOX</t>
+  </si>
+  <si>
+    <t>FRESH PANER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARLIC FISH   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEMON FISH  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISH FINGER  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISH FRY         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHILLY FISH  </t>
+  </si>
+  <si>
+    <t>TANDOORI TOMATO</t>
+  </si>
+  <si>
+    <t>CHESSE NAAN WITH GRAVY</t>
+  </si>
+  <si>
+    <t>STUFF AFGANI CHICKEN FULL</t>
   </si>
 </sst>
 </file>
@@ -1369,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558AF246-61CB-44C9-86BB-43FB08F458C0}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,10 +1533,18 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B16" s="3">
         <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="3">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1647,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1657,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B1" s="3">
         <v>400</v>
@@ -1627,7 +1666,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B2" s="3">
         <v>250</v>
@@ -1636,7 +1675,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3">
         <v>400</v>
@@ -1645,7 +1684,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B4" s="3">
         <v>250</v>
@@ -1654,7 +1693,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B5" s="3">
         <v>400</v>
@@ -1663,7 +1702,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B6" s="3">
         <v>250</v>
@@ -1672,7 +1711,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B7" s="3">
         <v>400</v>
@@ -1681,7 +1720,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B8" s="3">
         <v>250</v>
@@ -1690,7 +1729,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B9" s="3">
         <v>400</v>
@@ -1699,7 +1738,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B10" s="3">
         <v>250</v>
@@ -1708,7 +1747,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B11" s="3">
         <v>400</v>
@@ -1717,7 +1756,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B12" s="3">
         <v>250</v>
@@ -1726,7 +1765,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B13" s="3">
         <v>400</v>
@@ -1735,7 +1774,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B14" s="3">
         <v>250</v>
@@ -1744,7 +1783,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B15" s="3">
         <v>400</v>
@@ -1753,7 +1792,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B16" s="3">
         <v>250</v>
@@ -1762,7 +1801,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B17" s="3">
         <v>400</v>
@@ -1771,7 +1810,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B18" s="3">
         <v>250</v>
@@ -1780,7 +1819,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B19" s="3">
         <v>400</v>
@@ -1789,7 +1828,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B20" s="3">
         <v>250</v>
@@ -1798,7 +1837,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B21" s="3">
         <v>350</v>
@@ -1807,7 +1846,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B22" s="3">
         <v>400</v>
@@ -1816,7 +1855,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B23" s="3">
         <v>250</v>
@@ -1825,7 +1864,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B24" s="3">
         <v>300</v>
@@ -1834,7 +1873,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B25" s="3">
         <v>400</v>
@@ -1843,7 +1882,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B26" s="3">
         <v>250</v>
@@ -1852,7 +1891,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B27" s="3">
         <v>350</v>
@@ -1861,7 +1900,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B28" s="3">
         <v>300</v>
@@ -1870,7 +1909,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B29" s="3">
         <v>300</v>
@@ -1879,7 +1918,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B30" s="3">
         <v>150</v>
@@ -1888,7 +1927,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B31" s="3">
         <v>400</v>
@@ -1897,7 +1936,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B32" s="3">
         <v>250</v>
@@ -1906,7 +1945,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B33" s="3">
         <v>150</v>
@@ -1924,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93CBF4E-8791-4889-85A9-9D818638083A}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
@@ -1932,7 +1971,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B1">
         <v>110</v>
@@ -1940,7 +1979,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B2">
         <v>120</v>
@@ -1948,7 +1987,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B3">
         <v>130</v>
@@ -1956,7 +1995,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B4">
         <v>120</v>
@@ -1964,7 +2003,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B5">
         <v>120</v>
@@ -1972,7 +2011,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B6">
         <v>140</v>
@@ -1980,7 +2019,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B7">
         <v>150</v>
@@ -1988,7 +2027,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B8">
         <v>150</v>
@@ -1996,7 +2035,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B9">
         <v>160</v>
@@ -2004,7 +2043,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B10">
         <v>160</v>
@@ -2017,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23629338-B275-4F69-8019-C2697E75E994}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,6 +2195,69 @@
         <v>90</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="3">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72742984-01B3-4ACB-B897-F3816D0BDC1C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="3">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2163,10 +2265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6AA558-C2E4-4A73-BDE3-02514D67E5AC}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,8 +2356,17 @@
         <v>80</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="3">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2403,178 +2514,163 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEB9691-2C46-4761-989B-D82B26433025}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B1" s="3">
         <v>250</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3">
         <v>200</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B3" s="3">
-        <v>250</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="3">
-        <v>250</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="B5" s="3">
         <v>250</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B11" s="3">
         <v>250</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B13" s="3">
         <v>180</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="3">
         <v>290</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="3">
         <v>290</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="3">
         <v>300</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="3">
         <v>300</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="3">
         <v>320</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="3">
-        <v>400</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="3">
-        <v>380</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="3">
-        <v>400</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="3">
-        <v>380</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="3">
-        <v>380</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="3">
-        <v>400</v>
-      </c>
-      <c r="C18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2583,10 +2679,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4937C7-CB77-4735-816A-DCC210C4E7E8}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,10 +3044,18 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B45" s="3">
         <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2961,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF254E7E-1212-4683-BE3C-FC9E6E257B22}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,6 +3170,14 @@
       </c>
       <c r="B12" s="3">
         <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="3">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
